--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value315.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value315.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7609674200604259</v>
+        <v>0.7776834964752197</v>
       </c>
       <c r="B1">
-        <v>0.8888465348774344</v>
+        <v>1.28169584274292</v>
       </c>
       <c r="C1">
-        <v>1.139050469842696</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.514318977717304</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>5.025517332810117</v>
+        <v>1.63496720790863</v>
       </c>
     </row>
   </sheetData>
